--- a/sample/Analysis/ServicesAnalysis.xlsx
+++ b/sample/Analysis/ServicesAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naswif\Downloads\Azure-TPot-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naswif\Downloads\Azure-TPot-main\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D755EE1-97C5-4082-866E-CE46D966D155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12681F86-3B7F-4B58-9512-31EFA0DCA2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A41A0C42-BF42-4FF6-BB50-7BADC3C45C74}"/>
   </bookViews>
@@ -834,7 +834,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>80</v>
@@ -949,7 +949,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>84</v>
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>75</v>

--- a/sample/Analysis/ServicesAnalysis.xlsx
+++ b/sample/Analysis/ServicesAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naswif\Downloads\Azure-TPot-main\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12681F86-3B7F-4B58-9512-31EFA0DCA2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A6F46-9707-409C-AAD9-0D3F2FA64C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A41A0C42-BF42-4FF6-BB50-7BADC3C45C74}"/>
   </bookViews>
@@ -833,8 +833,8 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +976,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>90</v>
@@ -1082,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>89</v>
@@ -1109,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>70</v>

--- a/sample/Analysis/ServicesAnalysis.xlsx
+++ b/sample/Analysis/ServicesAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naswif\Downloads\Azure-TPot-main\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A6F46-9707-409C-AAD9-0D3F2FA64C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82E575-6604-461F-8FD5-30C78457B1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A41A0C42-BF42-4FF6-BB50-7BADC3C45C74}"/>
   </bookViews>
@@ -833,8 +833,8 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1163,7 @@
         <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>33</v>
@@ -1267,7 +1267,7 @@
         <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>62</v>
@@ -1348,7 +1348,7 @@
         <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>59</v>
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>58</v>
@@ -1446,7 +1446,7 @@
         <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>54</v>
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>51</v>
@@ -1500,7 +1500,7 @@
         <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>43</v>
@@ -1527,7 +1527,7 @@
         <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>44</v>
